--- a/wow/恶魔猎手技能表.xlsx
+++ b/wow/恶魔猎手技能表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DevGitRepositories\PathOfLearning\wow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BFAC25-8FEF-4C4D-A4D0-1C90E7CEDDFF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD221B8B-7BEA-4ECE-9CC7-A670DEB4BB42}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
   <si>
     <t>图例</t>
   </si>
@@ -51,9 +51,6 @@
     <t>施法时间</t>
   </si>
   <si>
-    <t>3 min</t>
-  </si>
-  <si>
     <t>瞬发</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>1.5min</t>
   </si>
   <si>
-    <t>1.3s</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 min </t>
   </si>
   <si>
@@ -82,18 +76,6 @@
   </si>
   <si>
     <t>10s</t>
-  </si>
-  <si>
-    <t>守护之魂</t>
-  </si>
-  <si>
-    <t>目标治疗效果提高60%，在一定伤害内防止死亡，10s</t>
-  </si>
-  <si>
-    <t>愈合祷言</t>
-  </si>
-  <si>
-    <t>角色受攻击恢复生命，并最多在20码内转移5次</t>
   </si>
   <si>
     <t>30s</t>
@@ -699,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -751,543 +733,505 @@
         <v>8</v>
       </c>
       <c r="L7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="B26" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="B28" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="B29" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="B30" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="B31" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="B32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>10</v>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>15</v>
+      <c r="B33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/wow/恶魔猎手技能表.xlsx
+++ b/wow/恶魔猎手技能表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DevGitRepositories\PathOfLearning\wow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD221B8B-7BEA-4ECE-9CC7-A670DEB4BB42}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70272736-C447-4A1A-BD37-E67293F9138E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="84">
   <si>
     <t>图例</t>
   </si>
@@ -64,15 +64,6 @@
   </si>
   <si>
     <t>1.5min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 min </t>
-  </si>
-  <si>
-    <t>圣言术·罚</t>
-  </si>
-  <si>
-    <t>伤害目标并使其瘫痪4秒</t>
   </si>
   <si>
     <t>10s</t>
@@ -681,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:J33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -733,43 +724,43 @@
         <v>8</v>
       </c>
       <c r="L7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>9</v>
@@ -777,35 +768,35 @@
     </row>
     <row r="9" spans="1:20">
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>9</v>
@@ -813,35 +804,35 @@
     </row>
     <row r="10" spans="1:20">
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>9</v>
@@ -849,35 +840,35 @@
     </row>
     <row r="11" spans="1:20">
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T11" s="5" t="s">
         <v>9</v>
@@ -885,37 +876,37 @@
     </row>
     <row r="12" spans="1:20">
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="T12" s="5" t="s">
         <v>9</v>
@@ -923,11 +914,11 @@
     </row>
     <row r="13" spans="1:20">
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -940,18 +931,18 @@
         <v>9</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="T13" s="5" t="s">
         <v>9</v>
@@ -959,13 +950,13 @@
     </row>
     <row r="14" spans="1:20">
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -980,20 +971,20 @@
     </row>
     <row r="15" spans="1:20">
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>9</v>
@@ -1001,20 +992,20 @@
     </row>
     <row r="16" spans="1:20">
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>11</v>
@@ -1022,14 +1013,14 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1043,38 +1034,40 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="B26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="1" t="s">
+      <c r="B26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="B27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D27" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>9</v>
@@ -1082,20 +1075,18 @@
     </row>
     <row r="28" spans="1:10">
       <c r="B28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>9</v>
@@ -1114,64 +1105,64 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="B30" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="2" t="s">
+      <c r="B30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="B31" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J31" s="3" t="s">
+      <c r="B31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="B32" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="J32" s="5" t="s">
         <v>9</v>
@@ -1179,18 +1170,18 @@
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>9</v>
@@ -1198,39 +1189,20 @@
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J35" s="5" t="s">
         <v>9</v>
       </c>
     </row>
